--- a/public/import_samples/import-plos-template.xlsx
+++ b/public/import_samples/import-plos-template.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <sheets>
     <sheet state="visible" name="E.g. Learning Outcome Cateogry " sheetId="1" r:id="rId4"/>
-    <sheet state="visible" name="Learning Outcome Category 2" sheetId="2" r:id="rId5"/>
+    <sheet state="visible" name="E.g. Learning Outcome Category " sheetId="2" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr/>
